--- a/bank/bukti_matching/permata_matching.xlsx
+++ b/bank/bukti_matching/permata_matching.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,7 +502,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45565</v>
+        <v>45443</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -516,11 +516,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>188.139.902,00</t>
+          <t>76.939.992,80</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45565</v>
+        <v>45443</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -534,7 +534,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>188.139.902,00</t>
+          <t>76.939.992,80</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -556,7 +556,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45575</v>
+        <v>45447</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -565,20 +565,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.500,00</t>
+          <t>33.224.480,00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>188.137.402,00</t>
+          <t>43.715.512,80</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45575</v>
+        <v>45447</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.500,00</t>
+          <t>33.224.480,00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>188.137.402,00</t>
+          <t>43.715.512,80</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -614,11 +614,11 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45580</v>
+        <v>45453</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8.025.000,00</t>
+          <t>8.250.000,00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -628,11 +628,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>196.162.402,00</t>
+          <t>51.965.512,80</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45580</v>
+        <v>45453</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -641,12 +641,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>8.025.000,00</t>
+          <t>8.250.000,00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>196.162.402,00</t>
+          <t>51.965.512,80</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -672,11 +672,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45596</v>
+        <v>45453</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>81.757,00</t>
+          <t>2.233.833,00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -686,11 +686,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>196.244.159,00</t>
+          <t>54.199.345,80</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45596</v>
+        <v>45453</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -699,12 +699,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>81.757,00</t>
+          <t>2.233.833,00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>196.244.159,00</t>
+          <t>54.199.345,80</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -730,7 +730,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45596</v>
+        <v>45461</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -739,20 +739,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16.351,00</t>
+          <t>130.900,00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>196.227.808,00</t>
+          <t>54.068.445,80</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45596</v>
+        <v>45461</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>16.351,00</t>
+          <t>130.900,00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>196.227.808,00</t>
+          <t>54.068.445,80</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -788,39 +788,39 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45596</v>
+        <v>45462</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8.106.757,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18.851,00</t>
+          <t>8.025.000,00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>196.227.808,00</t>
+          <t>46.043.445,80</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45596</v>
+        <v>45462</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>18.851,00</t>
+          <t>8.025.000,00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>8.106.757,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>196.227.808,00</t>
+          <t>46.043.445,80</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -835,10 +835,242 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>Matched</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.881.550,00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>44.161.895,80</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.881.550,00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>44.161.895,80</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Matched</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45473</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>10.350,00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.172.245,80</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45473</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>10.350,00</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>44.172.245,80</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Matched</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45473</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2.070,00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44.170.175,80</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45473</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.070,00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>44.170.175,80</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Matched</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45473</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10.494.183,00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>43.264.000,00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>44.170.175,80</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45473</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>43.264.000,00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>10.494.183,00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>44.170.175,80</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>Closing Balance</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -893,16 +1125,16 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45565</v>
+        <v>45443</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>188.139.902,00</t>
+          <t>76.939.992,80</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>188.139.902,00</t>
+          <t>76.939.992,80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -918,16 +1150,16 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45596</v>
+        <v>45473</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>196.227.808,00</t>
+          <t>44.170.175,80</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>196.227.808,00</t>
+          <t>44.170.175,80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
